--- a/Data/admin_data.xlsx
+++ b/Data/admin_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alia/Documents/Github/LIHEAP_admin_app/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alia/Documents/Github/LIHEAPadminapp/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924C6092-533F-134D-BBAD-5C45C34F5BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F569266F-2C02-5247-9D5B-C4EC244FDB32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="60">
   <si>
     <t>Maine</t>
   </si>
@@ -204,6 +204,15 @@
   </si>
   <si>
     <t>Req_doc</t>
+  </si>
+  <si>
+    <t>Appt_req</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -473,10 +482,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -488,7 +497,7 @@
     <col min="5" max="5" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
@@ -504,8 +513,11 @@
       <c r="E1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.15">
+      <c r="F1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -521,8 +533,11 @@
       <c r="E2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.15">
+      <c r="F2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -538,8 +553,11 @@
       <c r="E3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.15">
+      <c r="F3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -555,8 +573,11 @@
       <c r="E4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.15">
+      <c r="F4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -572,8 +593,11 @@
       <c r="E5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.15">
+      <c r="F5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -589,8 +613,11 @@
       <c r="E6" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.15">
+      <c r="F6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -606,8 +633,11 @@
       <c r="E7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.15">
+      <c r="F7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -623,8 +653,11 @@
       <c r="E8" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.15">
+      <c r="F8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -640,8 +673,11 @@
       <c r="E9" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.15">
+      <c r="F9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -657,8 +693,11 @@
       <c r="E10" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.15">
+      <c r="F10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -674,8 +713,11 @@
       <c r="E11" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -691,8 +733,11 @@
       <c r="E12" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -708,8 +753,11 @@
       <c r="E13" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -725,8 +773,11 @@
       <c r="E14" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
@@ -742,8 +793,11 @@
       <c r="E15" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
@@ -759,8 +813,11 @@
       <c r="E16" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
@@ -776,8 +833,11 @@
       <c r="E17" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
@@ -793,8 +853,11 @@
       <c r="E18" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -810,8 +873,11 @@
       <c r="E19" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -827,8 +893,11 @@
       <c r="E20" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -844,8 +913,11 @@
       <c r="E21" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -861,8 +933,11 @@
       <c r="E22" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -878,8 +953,11 @@
       <c r="E23" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -895,8 +973,11 @@
       <c r="E24" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -912,8 +993,11 @@
       <c r="E25" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -929,8 +1013,11 @@
       <c r="E26" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -946,8 +1033,11 @@
       <c r="E27" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>6</v>
       </c>
@@ -963,8 +1053,11 @@
       <c r="E28" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
@@ -980,8 +1073,11 @@
       <c r="E29" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>31</v>
       </c>
@@ -997,8 +1093,11 @@
       <c r="E30" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
@@ -1014,8 +1113,11 @@
       <c r="E31" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>33</v>
       </c>
@@ -1031,8 +1133,11 @@
       <c r="E32" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>34</v>
       </c>
@@ -1048,8 +1153,11 @@
       <c r="E33" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>1</v>
       </c>
@@ -1065,8 +1173,11 @@
       <c r="E34" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
@@ -1082,8 +1193,11 @@
       <c r="E35" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
@@ -1099,8 +1213,11 @@
       <c r="E36" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
@@ -1116,8 +1233,11 @@
       <c r="E37" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
@@ -1133,8 +1253,11 @@
       <c r="E38" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>39</v>
       </c>
@@ -1150,8 +1273,11 @@
       <c r="E39" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
@@ -1167,8 +1293,11 @@
       <c r="E40" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
@@ -1184,8 +1313,11 @@
       <c r="E41" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
@@ -1201,8 +1333,11 @@
       <c r="E42" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F42" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
@@ -1218,8 +1353,11 @@
       <c r="E43" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F43" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
@@ -1235,8 +1373,11 @@
       <c r="E44" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F44" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>4</v>
       </c>
@@ -1252,8 +1393,11 @@
       <c r="E45" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F45" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
@@ -1269,8 +1413,11 @@
       <c r="E46" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F46" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
@@ -1286,8 +1433,11 @@
       <c r="E47" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F47" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>2</v>
       </c>
@@ -1303,8 +1453,11 @@
       <c r="E48" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F48" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
         <v>47</v>
       </c>
@@ -1320,8 +1473,11 @@
       <c r="E49" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
@@ -1337,8 +1493,11 @@
       <c r="E50" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F50" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
@@ -1354,8 +1513,11 @@
       <c r="E51" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F51" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
         <v>50</v>
       </c>
@@ -1370,6 +1532,9 @@
       </c>
       <c r="E52" t="s">
         <v>51</v>
+      </c>
+      <c r="F52" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Data/admin_data.xlsx
+++ b/Data/admin_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alia/Documents/Github/LIHEAPadminapp/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F569266F-2C02-5247-9D5B-C4EC244FDB32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BF277D-94A3-C249-9746-C843529618B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="74">
   <si>
     <t>Maine</t>
   </si>
@@ -213,6 +213,48 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>SSN, Photo ID, proof of income, utility bill</t>
+  </si>
+  <si>
+    <t>App_online</t>
+  </si>
+  <si>
+    <t>SSN</t>
+  </si>
+  <si>
+    <t>SSN, proof of income</t>
+  </si>
+  <si>
+    <t>SSN, Photo ID, proof of income, utility bill, proof of citizenship</t>
+  </si>
+  <si>
+    <t>Num_docs</t>
+  </si>
+  <si>
+    <t>Proof of income, copy of lease, utility bill, proof of payments</t>
+  </si>
+  <si>
+    <t>SSN, ID, utility bill, proof of income</t>
+  </si>
+  <si>
+    <t>Client data request waiver, utility bill</t>
+  </si>
+  <si>
+    <t>SSN, Photo ID, utility bill, proof of income</t>
+  </si>
+  <si>
+    <t>SSN, proof of income, utility bill, household verification, verification of energy education, proof of residency</t>
+  </si>
+  <si>
+    <t>SSN, utility bill</t>
+  </si>
+  <si>
+    <t>SSN, utility bill, proof of income</t>
+  </si>
+  <si>
+    <t>SSN, ID, proof of citizenship, proof of residency, proof of income, proof of home ownership/renter status,</t>
   </si>
 </sst>
 </file>
@@ -236,12 +278,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -256,12 +304,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="5" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="5" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -482,10 +537,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -494,10 +549,11 @@
     <col min="2" max="2" width="28.6640625" customWidth="1"/>
     <col min="3" max="3" width="21.1640625" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" customWidth="1"/>
+    <col min="5" max="5" width="85.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
@@ -514,210 +570,286 @@
         <v>56</v>
       </c>
       <c r="F1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+      <c r="H1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4">
+        <v>29</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="4">
+        <f>LEN(E2)-LEN(SUBSTITUTE(E2,",",""))+1</f>
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="G2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4">
+        <v>16</v>
+      </c>
+      <c r="C3" s="4">
+        <v>40</v>
+      </c>
+      <c r="D3" s="4">
+        <v>30</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="4">
+        <f t="shared" ref="F3:F52" si="0">LEN(E3)-LEN(SUBSTITUTE(E3,",",""))+1</f>
+        <v>4</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4">
+        <v>30</v>
+      </c>
+      <c r="D4" s="4">
+        <v>53</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4">
+        <v>30</v>
+      </c>
+      <c r="D5" s="4">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4">
+        <v>60</v>
+      </c>
+      <c r="D6" s="4">
+        <v>76</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="4">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4">
+        <v>20</v>
+      </c>
+      <c r="D7" s="4">
+        <v>11</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="4">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4">
+        <v>40</v>
+      </c>
+      <c r="D8" s="4">
+        <v>71</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="4">
+        <v>4</v>
+      </c>
+      <c r="C9" s="4">
+        <v>20</v>
+      </c>
+      <c r="D9" s="4">
+        <v>16</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="4">
+        <v>3</v>
+      </c>
+      <c r="C10" s="4">
+        <v>15</v>
+      </c>
+      <c r="D10" s="4">
         <v>50</v>
       </c>
-      <c r="D2">
-        <v>33</v>
-      </c>
-      <c r="E2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>63</v>
-      </c>
-      <c r="D3">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="H10" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>77</v>
-      </c>
-      <c r="D4">
-        <v>40</v>
-      </c>
-      <c r="E4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" t="s">
+    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="4">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4">
+        <v>30</v>
+      </c>
+      <c r="D11" s="4">
+        <v>80</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>19</v>
-      </c>
-      <c r="D5">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>14</v>
-      </c>
-      <c r="C6">
-        <v>23</v>
-      </c>
-      <c r="D6">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>33</v>
-      </c>
-      <c r="D7">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>22</v>
-      </c>
-      <c r="D8">
-        <v>23</v>
-      </c>
-      <c r="E8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>89</v>
-      </c>
-      <c r="D9">
-        <v>20</v>
-      </c>
-      <c r="E9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>14</v>
-      </c>
-      <c r="C10">
-        <v>99</v>
-      </c>
-      <c r="D10">
-        <v>39</v>
-      </c>
-      <c r="E10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>60</v>
-      </c>
-      <c r="D11">
-        <v>21</v>
-      </c>
-      <c r="E11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H11" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -733,11 +865,15 @@
       <c r="E12" t="s">
         <v>51</v>
       </c>
-      <c r="F12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -753,11 +889,15 @@
       <c r="E13" t="s">
         <v>51</v>
       </c>
-      <c r="F13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -773,11 +913,15 @@
       <c r="E14" t="s">
         <v>51</v>
       </c>
-      <c r="F14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
@@ -793,11 +937,15 @@
       <c r="E15" t="s">
         <v>51</v>
       </c>
-      <c r="F15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
@@ -813,11 +961,15 @@
       <c r="E16" t="s">
         <v>51</v>
       </c>
-      <c r="F16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
@@ -833,31 +985,42 @@
       <c r="E17" t="s">
         <v>51</v>
       </c>
-      <c r="F17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B18">
-        <v>13</v>
-      </c>
-      <c r="C18">
-        <v>63</v>
-      </c>
-      <c r="D18">
-        <v>10</v>
-      </c>
-      <c r="E18" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="4">
+        <v>5</v>
+      </c>
+      <c r="C18" s="4">
+        <v>15</v>
+      </c>
+      <c r="D18" s="4">
+        <v>27</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -873,11 +1036,15 @@
       <c r="E19" t="s">
         <v>51</v>
       </c>
-      <c r="F19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -893,31 +1060,38 @@
       <c r="E20" t="s">
         <v>51</v>
       </c>
-      <c r="F20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B21">
-        <v>4</v>
-      </c>
-      <c r="C21">
-        <v>56</v>
-      </c>
-      <c r="D21">
-        <v>31</v>
-      </c>
-      <c r="E21" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="4">
+        <v>1</v>
+      </c>
+      <c r="C21" s="4">
+        <v>30</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -933,11 +1107,15 @@
       <c r="E22" t="s">
         <v>51</v>
       </c>
-      <c r="F22" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -953,31 +1131,42 @@
       <c r="E23" t="s">
         <v>51</v>
       </c>
-      <c r="F23" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B24">
-        <v>6</v>
-      </c>
-      <c r="C24">
-        <v>87</v>
-      </c>
-      <c r="D24">
-        <v>16</v>
-      </c>
-      <c r="E24" t="s">
-        <v>51</v>
-      </c>
-      <c r="F24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="4">
+        <v>4</v>
+      </c>
+      <c r="C24" s="4">
+        <v>30</v>
+      </c>
+      <c r="D24" s="4">
+        <v>47</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -993,11 +1182,15 @@
       <c r="E25" t="s">
         <v>51</v>
       </c>
-      <c r="F25" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -1013,11 +1206,15 @@
       <c r="E26" t="s">
         <v>51</v>
       </c>
-      <c r="F26" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -1033,11 +1230,15 @@
       <c r="E27" t="s">
         <v>51</v>
       </c>
-      <c r="F27" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>6</v>
       </c>
@@ -1053,11 +1254,15 @@
       <c r="E28" t="s">
         <v>51</v>
       </c>
-      <c r="F28" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
@@ -1073,11 +1278,15 @@
       <c r="E29" t="s">
         <v>51</v>
       </c>
-      <c r="F29" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>31</v>
       </c>
@@ -1093,11 +1302,15 @@
       <c r="E30" t="s">
         <v>51</v>
       </c>
-      <c r="F30" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
@@ -1113,11 +1326,15 @@
       <c r="E31" t="s">
         <v>51</v>
       </c>
-      <c r="F31" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>33</v>
       </c>
@@ -1133,11 +1350,15 @@
       <c r="E32" t="s">
         <v>51</v>
       </c>
-      <c r="F32" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>34</v>
       </c>
@@ -1153,31 +1374,38 @@
       <c r="E33" t="s">
         <v>51</v>
       </c>
-      <c r="F33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="1" t="s">
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B34">
-        <v>4</v>
-      </c>
-      <c r="C34">
-        <v>27</v>
-      </c>
-      <c r="D34">
-        <v>23</v>
-      </c>
-      <c r="E34" t="s">
-        <v>51</v>
-      </c>
-      <c r="F34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="4">
+        <v>1</v>
+      </c>
+      <c r="C34" s="4">
+        <v>30</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
@@ -1193,11 +1421,15 @@
       <c r="E35" t="s">
         <v>51</v>
       </c>
-      <c r="F35" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
@@ -1213,11 +1445,15 @@
       <c r="E36" t="s">
         <v>51</v>
       </c>
-      <c r="F36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
@@ -1233,11 +1469,15 @@
       <c r="E37" t="s">
         <v>51</v>
       </c>
-      <c r="F37" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
@@ -1253,11 +1493,15 @@
       <c r="E38" t="s">
         <v>51</v>
       </c>
-      <c r="F38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>39</v>
       </c>
@@ -1273,11 +1517,15 @@
       <c r="E39" t="s">
         <v>51</v>
       </c>
-      <c r="F39" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
@@ -1293,11 +1541,15 @@
       <c r="E40" t="s">
         <v>51</v>
       </c>
-      <c r="F40" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
@@ -1313,11 +1565,15 @@
       <c r="E41" t="s">
         <v>51</v>
       </c>
-      <c r="F41" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
@@ -1333,11 +1589,15 @@
       <c r="E42" t="s">
         <v>51</v>
       </c>
-      <c r="F42" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G42" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
@@ -1353,11 +1613,15 @@
       <c r="E43" t="s">
         <v>51</v>
       </c>
-      <c r="F43" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G43" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
@@ -1373,31 +1637,42 @@
       <c r="E44" t="s">
         <v>51</v>
       </c>
-      <c r="F44" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="1" t="s">
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G44" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="4">
+        <v>7</v>
+      </c>
+      <c r="C45" s="4">
         <v>15</v>
       </c>
-      <c r="C45">
-        <v>79</v>
-      </c>
-      <c r="D45">
-        <v>23</v>
-      </c>
-      <c r="E45" t="s">
-        <v>51</v>
-      </c>
-      <c r="F45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D45" s="4">
+        <v>115</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F45" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
@@ -1413,11 +1688,15 @@
       <c r="E46" t="s">
         <v>51</v>
       </c>
-      <c r="F46" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G46" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
@@ -1433,11 +1712,15 @@
       <c r="E47" t="s">
         <v>51</v>
       </c>
-      <c r="F47" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G47" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>2</v>
       </c>
@@ -1453,11 +1736,15 @@
       <c r="E48" t="s">
         <v>51</v>
       </c>
-      <c r="F48" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G48" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
         <v>47</v>
       </c>
@@ -1473,11 +1760,15 @@
       <c r="E49" t="s">
         <v>51</v>
       </c>
-      <c r="F49" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
@@ -1493,11 +1784,15 @@
       <c r="E50" t="s">
         <v>51</v>
       </c>
-      <c r="F50" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G50" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
@@ -1513,11 +1808,15 @@
       <c r="E51" t="s">
         <v>51</v>
       </c>
-      <c r="F51" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G51" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
         <v>50</v>
       </c>
@@ -1533,7 +1832,11 @@
       <c r="E52" t="s">
         <v>51</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G52" t="s">
         <v>59</v>
       </c>
     </row>

--- a/Data/admin_data.xlsx
+++ b/Data/admin_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alia/Documents/Github/LIHEAPadminapp/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BF277D-94A3-C249-9746-C843529618B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C598E4-5C84-B64D-8757-4B1C49CA6785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -540,7 +540,7 @@
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Data/admin_data.xlsx
+++ b/Data/admin_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alia/Documents/Github/LIHEAPadminapp/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C598E4-5C84-B64D-8757-4B1C49CA6785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314459AC-C7B3-6949-987D-60B54FE93FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -540,7 +540,7 @@
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -596,7 +596,6 @@
         <v>68</v>
       </c>
       <c r="F2" s="4">
-        <f>LEN(E2)-LEN(SUBSTITUTE(E2,",",""))+1</f>
         <v>2</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -623,7 +622,6 @@
         <v>67</v>
       </c>
       <c r="F3" s="4">
-        <f t="shared" ref="F3:F52" si="0">LEN(E3)-LEN(SUBSTITUTE(E3,",",""))+1</f>
         <v>4</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -650,7 +648,6 @@
         <v>69</v>
       </c>
       <c r="F4" s="4">
-        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -677,7 +674,6 @@
         <v>67</v>
       </c>
       <c r="F5" s="4">
-        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -704,7 +700,6 @@
         <v>70</v>
       </c>
       <c r="F6" s="4">
-        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="G6" s="4" t="s">
@@ -731,7 +726,6 @@
         <v>71</v>
       </c>
       <c r="F7" s="4">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -758,7 +752,6 @@
         <v>72</v>
       </c>
       <c r="F8" s="4">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -785,7 +778,6 @@
         <v>73</v>
       </c>
       <c r="F9" s="4">
-        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="G9" s="4" t="s">
@@ -812,7 +804,6 @@
         <v>60</v>
       </c>
       <c r="F10" s="4">
-        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G10" s="4" t="s">
@@ -839,7 +830,6 @@
         <v>62</v>
       </c>
       <c r="F11" s="4">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G11" s="4" t="s">
@@ -866,7 +856,6 @@
         <v>51</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G12" t="s">
@@ -890,7 +879,6 @@
         <v>51</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G13" t="s">
@@ -914,7 +902,6 @@
         <v>51</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G14" t="s">
@@ -938,7 +925,6 @@
         <v>51</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G15" t="s">
@@ -962,7 +948,6 @@
         <v>51</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G16" t="s">
@@ -986,7 +971,6 @@
         <v>51</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G17" t="s">
@@ -1010,7 +994,6 @@
         <v>66</v>
       </c>
       <c r="F18" s="4">
-        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G18" s="4" t="s">
@@ -1037,7 +1020,6 @@
         <v>51</v>
       </c>
       <c r="F19">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G19" t="s">
@@ -1061,7 +1043,6 @@
         <v>51</v>
       </c>
       <c r="F20">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G20" t="s">
@@ -1081,7 +1062,6 @@
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G21" s="4" t="s">
@@ -1108,7 +1088,6 @@
         <v>51</v>
       </c>
       <c r="F22">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G22" t="s">
@@ -1132,7 +1111,6 @@
         <v>51</v>
       </c>
       <c r="F23">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G23" t="s">
@@ -1156,7 +1134,6 @@
         <v>63</v>
       </c>
       <c r="F24" s="4">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G24" s="4" t="s">
@@ -1183,7 +1160,6 @@
         <v>51</v>
       </c>
       <c r="F25">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G25" t="s">
@@ -1207,7 +1183,6 @@
         <v>51</v>
       </c>
       <c r="F26">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G26" t="s">
@@ -1231,7 +1206,6 @@
         <v>51</v>
       </c>
       <c r="F27">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G27" t="s">
@@ -1255,7 +1229,6 @@
         <v>51</v>
       </c>
       <c r="F28">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G28" t="s">
@@ -1279,7 +1252,6 @@
         <v>51</v>
       </c>
       <c r="F29">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G29" t="s">
@@ -1303,7 +1275,6 @@
         <v>51</v>
       </c>
       <c r="F30">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G30" t="s">
@@ -1327,7 +1298,6 @@
         <v>51</v>
       </c>
       <c r="F31">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G31" t="s">
@@ -1351,7 +1321,6 @@
         <v>51</v>
       </c>
       <c r="F32">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G32" t="s">
@@ -1375,7 +1344,6 @@
         <v>51</v>
       </c>
       <c r="F33">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G33" t="s">
@@ -1395,7 +1363,6 @@
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G34" s="4" t="s">
@@ -1422,7 +1389,6 @@
         <v>51</v>
       </c>
       <c r="F35">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G35" t="s">
@@ -1446,7 +1412,6 @@
         <v>51</v>
       </c>
       <c r="F36">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G36" t="s">
@@ -1470,7 +1435,6 @@
         <v>51</v>
       </c>
       <c r="F37">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G37" t="s">
@@ -1494,7 +1458,6 @@
         <v>51</v>
       </c>
       <c r="F38">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G38" t="s">
@@ -1518,7 +1481,6 @@
         <v>51</v>
       </c>
       <c r="F39">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G39" t="s">
@@ -1542,7 +1504,6 @@
         <v>51</v>
       </c>
       <c r="F40">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G40" t="s">
@@ -1566,7 +1527,6 @@
         <v>51</v>
       </c>
       <c r="F41">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G41" t="s">
@@ -1590,7 +1550,6 @@
         <v>51</v>
       </c>
       <c r="F42">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G42" t="s">
@@ -1614,7 +1573,6 @@
         <v>51</v>
       </c>
       <c r="F43">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G43" t="s">
@@ -1638,7 +1596,6 @@
         <v>51</v>
       </c>
       <c r="F44">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G44" t="s">
@@ -1662,7 +1619,6 @@
         <v>64</v>
       </c>
       <c r="F45" s="4">
-        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G45" s="4" t="s">
@@ -1689,7 +1645,6 @@
         <v>51</v>
       </c>
       <c r="F46">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G46" t="s">
@@ -1713,7 +1668,6 @@
         <v>51</v>
       </c>
       <c r="F47">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G47" t="s">
@@ -1737,7 +1691,6 @@
         <v>51</v>
       </c>
       <c r="F48">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G48" t="s">
@@ -1761,7 +1714,6 @@
         <v>51</v>
       </c>
       <c r="F49">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G49" t="s">
@@ -1785,7 +1737,6 @@
         <v>51</v>
       </c>
       <c r="F50">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G50" t="s">
@@ -1809,7 +1760,6 @@
         <v>51</v>
       </c>
       <c r="F51">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G51" t="s">
@@ -1833,7 +1783,6 @@
         <v>51</v>
       </c>
       <c r="F52">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G52" t="s">

--- a/Data/admin_data.xlsx
+++ b/Data/admin_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alia/Documents/Github/LIHEAPadminapp/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314459AC-C7B3-6949-987D-60B54FE93FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0E27A72-90A8-0B49-BEC0-62C271896EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -540,7 +540,7 @@
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Data/admin_data.xlsx
+++ b/Data/admin_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alia/Documents/Github/LIHEAPadminapp/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0E27A72-90A8-0B49-BEC0-62C271896EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5448A64-76CD-5649-807A-DC9452760229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="76">
   <si>
     <t>Maine</t>
   </si>
@@ -254,7 +254,13 @@
     <t>SSN, utility bill, proof of income</t>
   </si>
   <si>
-    <t>SSN, ID, proof of citizenship, proof of residency, proof of income, proof of home ownership/renter status,</t>
+    <t>SSN, ID, proof of citizenship, proof of residency, proof of income, proof of home ownership/renter status</t>
+  </si>
+  <si>
+    <t>SSN, proof of residence, photo ID, proof of vulnable household member, proofo of income, utility bill</t>
+  </si>
+  <si>
+    <t>SSN, proof of income, proof of residency, utility bill</t>
   </si>
 </sst>
 </file>
@@ -539,8 +545,8 @@
   </sheetPr>
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -596,6 +602,7 @@
         <v>68</v>
       </c>
       <c r="F2" s="4">
+        <f>LEN(E2)-LEN(SUBSTITUTE(E2,",",""))+1</f>
         <v>2</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -622,6 +629,7 @@
         <v>67</v>
       </c>
       <c r="F3" s="4">
+        <f t="shared" ref="F3:F52" si="0">LEN(E3)-LEN(SUBSTITUTE(E3,",",""))+1</f>
         <v>4</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -648,6 +656,7 @@
         <v>69</v>
       </c>
       <c r="F4" s="4">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -674,6 +683,7 @@
         <v>67</v>
       </c>
       <c r="F5" s="4">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -700,6 +710,7 @@
         <v>70</v>
       </c>
       <c r="F6" s="4">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="G6" s="4" t="s">
@@ -726,6 +737,7 @@
         <v>71</v>
       </c>
       <c r="F7" s="4">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -752,6 +764,7 @@
         <v>72</v>
       </c>
       <c r="F8" s="4">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -778,7 +791,8 @@
         <v>73</v>
       </c>
       <c r="F9" s="4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>59</v>
@@ -804,6 +818,7 @@
         <v>60</v>
       </c>
       <c r="F10" s="4">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G10" s="4" t="s">
@@ -830,6 +845,7 @@
         <v>62</v>
       </c>
       <c r="F11" s="4">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G11" s="4" t="s">
@@ -856,9 +872,13 @@
         <v>51</v>
       </c>
       <c r="F12">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -879,9 +899,13 @@
         <v>51</v>
       </c>
       <c r="F13">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G13" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -902,9 +926,13 @@
         <v>51</v>
       </c>
       <c r="F14">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -925,9 +953,13 @@
         <v>51</v>
       </c>
       <c r="F15">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G15" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -948,9 +980,13 @@
         <v>51</v>
       </c>
       <c r="F16">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G16" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -971,9 +1007,13 @@
         <v>51</v>
       </c>
       <c r="F17">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G17" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -994,6 +1034,7 @@
         <v>66</v>
       </c>
       <c r="F18" s="4">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G18" s="4" t="s">
@@ -1020,9 +1061,13 @@
         <v>51</v>
       </c>
       <c r="F19">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G19" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1043,9 +1088,13 @@
         <v>51</v>
       </c>
       <c r="F20">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G20" t="s">
+        <v>59</v>
+      </c>
+      <c r="H20" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1054,15 +1103,20 @@
         <v>0</v>
       </c>
       <c r="B21" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C21" s="4">
         <v>30</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+      <c r="D21" s="4">
+        <v>66</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="F21" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>59</v>
@@ -1088,9 +1142,13 @@
         <v>51</v>
       </c>
       <c r="F22">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G22" t="s">
+        <v>59</v>
+      </c>
+      <c r="H22" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1111,9 +1169,13 @@
         <v>51</v>
       </c>
       <c r="F23">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G23" t="s">
+        <v>59</v>
+      </c>
+      <c r="H23" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1134,6 +1196,7 @@
         <v>63</v>
       </c>
       <c r="F24" s="4">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G24" s="4" t="s">
@@ -1160,9 +1223,13 @@
         <v>51</v>
       </c>
       <c r="F25">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G25" t="s">
+        <v>59</v>
+      </c>
+      <c r="H25" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1183,9 +1250,13 @@
         <v>51</v>
       </c>
       <c r="F26">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G26" t="s">
+        <v>59</v>
+      </c>
+      <c r="H26" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1206,9 +1277,13 @@
         <v>51</v>
       </c>
       <c r="F27">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G27" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1229,9 +1304,13 @@
         <v>51</v>
       </c>
       <c r="F28">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G28" t="s">
+        <v>59</v>
+      </c>
+      <c r="H28" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1252,9 +1331,13 @@
         <v>51</v>
       </c>
       <c r="F29">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G29" t="s">
+        <v>59</v>
+      </c>
+      <c r="H29" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1275,9 +1358,13 @@
         <v>51</v>
       </c>
       <c r="F30">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G30" t="s">
+        <v>59</v>
+      </c>
+      <c r="H30" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1298,9 +1385,13 @@
         <v>51</v>
       </c>
       <c r="F31">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G31" t="s">
+        <v>59</v>
+      </c>
+      <c r="H31" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1321,9 +1412,13 @@
         <v>51</v>
       </c>
       <c r="F32">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G32" t="s">
+        <v>59</v>
+      </c>
+      <c r="H32" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1344,9 +1439,13 @@
         <v>51</v>
       </c>
       <c r="F33">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G33" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1355,21 +1454,26 @@
         <v>1</v>
       </c>
       <c r="B34" s="4">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C34" s="4">
-        <v>30</v>
-      </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="D34" s="4">
+        <v>60</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="F34" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1389,9 +1493,13 @@
         <v>51</v>
       </c>
       <c r="F35">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G35" t="s">
+        <v>59</v>
+      </c>
+      <c r="H35" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1412,9 +1520,13 @@
         <v>51</v>
       </c>
       <c r="F36">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G36" t="s">
+        <v>59</v>
+      </c>
+      <c r="H36" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1435,9 +1547,13 @@
         <v>51</v>
       </c>
       <c r="F37">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G37" t="s">
+        <v>59</v>
+      </c>
+      <c r="H37" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1458,9 +1574,13 @@
         <v>51</v>
       </c>
       <c r="F38">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G38" t="s">
+        <v>59</v>
+      </c>
+      <c r="H38" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1481,9 +1601,13 @@
         <v>51</v>
       </c>
       <c r="F39">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G39" t="s">
+        <v>59</v>
+      </c>
+      <c r="H39" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1504,9 +1628,13 @@
         <v>51</v>
       </c>
       <c r="F40">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G40" t="s">
+        <v>59</v>
+      </c>
+      <c r="H40" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1527,9 +1655,13 @@
         <v>51</v>
       </c>
       <c r="F41">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G41" t="s">
+        <v>59</v>
+      </c>
+      <c r="H41" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1550,9 +1682,13 @@
         <v>51</v>
       </c>
       <c r="F42">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G42" t="s">
+        <v>59</v>
+      </c>
+      <c r="H42" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1573,9 +1709,13 @@
         <v>51</v>
       </c>
       <c r="F43">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G43" t="s">
+        <v>59</v>
+      </c>
+      <c r="H43" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1596,9 +1736,13 @@
         <v>51</v>
       </c>
       <c r="F44">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G44" t="s">
+        <v>59</v>
+      </c>
+      <c r="H44" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1619,6 +1763,7 @@
         <v>64</v>
       </c>
       <c r="F45" s="4">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G45" s="4" t="s">
@@ -1645,9 +1790,13 @@
         <v>51</v>
       </c>
       <c r="F46">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G46" t="s">
+        <v>59</v>
+      </c>
+      <c r="H46" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1668,9 +1817,13 @@
         <v>51</v>
       </c>
       <c r="F47">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G47" t="s">
+        <v>59</v>
+      </c>
+      <c r="H47" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1691,13 +1844,17 @@
         <v>51</v>
       </c>
       <c r="F48">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G48" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H48" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
         <v>47</v>
       </c>
@@ -1714,13 +1871,17 @@
         <v>51</v>
       </c>
       <c r="F49">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G49" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H49" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
@@ -1737,13 +1898,17 @@
         <v>51</v>
       </c>
       <c r="F50">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G50" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H50" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
@@ -1760,13 +1925,17 @@
         <v>51</v>
       </c>
       <c r="F51">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G51" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H51" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
         <v>50</v>
       </c>
@@ -1783,9 +1952,13 @@
         <v>51</v>
       </c>
       <c r="F52">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G52" t="s">
+        <v>59</v>
+      </c>
+      <c r="H52" s="4" t="s">
         <v>59</v>
       </c>
     </row>

--- a/Data/admin_data.xlsx
+++ b/Data/admin_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alia/Documents/Github/LIHEAPadminapp/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5448A64-76CD-5649-807A-DC9452760229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16817919-67C5-054F-A015-B95936E06299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -545,8 +545,8 @@
   </sheetPr>
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -876,7 +876,7 @@
         <v>3</v>
       </c>
       <c r="G12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>59</v>
@@ -903,7 +903,7 @@
         <v>3</v>
       </c>
       <c r="G13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>59</v>
@@ -930,7 +930,7 @@
         <v>3</v>
       </c>
       <c r="G14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>59</v>
@@ -957,7 +957,7 @@
         <v>3</v>
       </c>
       <c r="G15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>59</v>
@@ -984,7 +984,7 @@
         <v>3</v>
       </c>
       <c r="G16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>59</v>
@@ -1011,7 +1011,7 @@
         <v>3</v>
       </c>
       <c r="G17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>59</v>
@@ -1065,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="G19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>59</v>
@@ -1092,7 +1092,7 @@
         <v>3</v>
       </c>
       <c r="G20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>59</v>
@@ -1146,7 +1146,7 @@
         <v>3</v>
       </c>
       <c r="G22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>59</v>
@@ -1173,7 +1173,7 @@
         <v>3</v>
       </c>
       <c r="G23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>59</v>
@@ -1227,7 +1227,7 @@
         <v>3</v>
       </c>
       <c r="G25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>59</v>
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="G26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>59</v>
@@ -1281,7 +1281,7 @@
         <v>3</v>
       </c>
       <c r="G27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>59</v>
@@ -1308,7 +1308,7 @@
         <v>3</v>
       </c>
       <c r="G28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>59</v>
@@ -1335,7 +1335,7 @@
         <v>3</v>
       </c>
       <c r="G29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>59</v>
@@ -1362,7 +1362,7 @@
         <v>3</v>
       </c>
       <c r="G30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>59</v>
@@ -1389,7 +1389,7 @@
         <v>3</v>
       </c>
       <c r="G31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>59</v>
@@ -1416,7 +1416,7 @@
         <v>3</v>
       </c>
       <c r="G32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>59</v>
@@ -1443,7 +1443,7 @@
         <v>3</v>
       </c>
       <c r="G33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>59</v>
@@ -1497,7 +1497,7 @@
         <v>3</v>
       </c>
       <c r="G35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>59</v>
@@ -1524,7 +1524,7 @@
         <v>3</v>
       </c>
       <c r="G36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>59</v>
@@ -1551,7 +1551,7 @@
         <v>3</v>
       </c>
       <c r="G37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>59</v>
@@ -1578,7 +1578,7 @@
         <v>3</v>
       </c>
       <c r="G38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>59</v>
@@ -1605,7 +1605,7 @@
         <v>3</v>
       </c>
       <c r="G39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>59</v>
@@ -1632,7 +1632,7 @@
         <v>3</v>
       </c>
       <c r="G40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>59</v>
@@ -1659,7 +1659,7 @@
         <v>3</v>
       </c>
       <c r="G41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>59</v>
@@ -1686,7 +1686,7 @@
         <v>3</v>
       </c>
       <c r="G42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H42" s="4" t="s">
         <v>59</v>
@@ -1713,7 +1713,7 @@
         <v>3</v>
       </c>
       <c r="G43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H43" s="4" t="s">
         <v>59</v>
@@ -1740,7 +1740,7 @@
         <v>3</v>
       </c>
       <c r="G44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H44" s="4" t="s">
         <v>59</v>
@@ -1794,7 +1794,7 @@
         <v>3</v>
       </c>
       <c r="G46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H46" s="4" t="s">
         <v>59</v>
@@ -1821,7 +1821,7 @@
         <v>3</v>
       </c>
       <c r="G47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H47" s="4" t="s">
         <v>59</v>
@@ -1848,7 +1848,7 @@
         <v>3</v>
       </c>
       <c r="G48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>59</v>
@@ -1875,7 +1875,7 @@
         <v>3</v>
       </c>
       <c r="G49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H49" s="4" t="s">
         <v>59</v>
@@ -1902,7 +1902,7 @@
         <v>3</v>
       </c>
       <c r="G50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H50" s="4" t="s">
         <v>59</v>
@@ -1929,7 +1929,7 @@
         <v>3</v>
       </c>
       <c r="G51" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H51" s="4" t="s">
         <v>59</v>
@@ -1956,7 +1956,7 @@
         <v>3</v>
       </c>
       <c r="G52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H52" s="4" t="s">
         <v>59</v>

--- a/Data/admin_data.xlsx
+++ b/Data/admin_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alia/Documents/Github/LIHEAPadminapp/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16817919-67C5-054F-A015-B95936E06299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA3D942-F2FF-6F40-8A45-2C72EBA7C4B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="78">
   <si>
     <t>Maine</t>
   </si>
@@ -221,9 +221,6 @@
     <t>App_online</t>
   </si>
   <si>
-    <t>SSN</t>
-  </si>
-  <si>
     <t>SSN, proof of income</t>
   </si>
   <si>
@@ -261,6 +258,15 @@
   </si>
   <si>
     <t>SSN, proof of income, proof of residency, utility bill</t>
+  </si>
+  <si>
+    <t>SSN, ID, proof of citizenship, proof of residency, proof of income, utility bill</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>SSN, proof of income, utility bill, proof of citizenship</t>
   </si>
 </sst>
 </file>
@@ -310,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -325,6 +331,7 @@
     <xf numFmtId="5" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -546,7 +553,7 @@
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="A33" sqref="A33:H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -576,7 +583,7 @@
         <v>56</v>
       </c>
       <c r="F1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G1" t="s">
         <v>57</v>
@@ -599,7 +606,7 @@
         <v>29</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2" s="4">
         <f>LEN(E2)-LEN(SUBSTITUTE(E2,",",""))+1</f>
@@ -626,7 +633,7 @@
         <v>30</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F3" s="4">
         <f t="shared" ref="F3:F52" si="0">LEN(E3)-LEN(SUBSTITUTE(E3,",",""))+1</f>
@@ -653,7 +660,7 @@
         <v>53</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F4" s="4">
         <f t="shared" si="0"/>
@@ -680,7 +687,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" si="0"/>
@@ -707,7 +714,7 @@
         <v>76</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" si="0"/>
@@ -734,7 +741,7 @@
         <v>11</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" si="0"/>
@@ -761,7 +768,7 @@
         <v>71</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" si="0"/>
@@ -788,7 +795,7 @@
         <v>16</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" si="0"/>
@@ -833,23 +840,23 @@
         <v>3</v>
       </c>
       <c r="B11" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C11" s="4">
         <v>30</v>
       </c>
       <c r="D11" s="4">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>59</v>
@@ -860,49 +867,49 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>8</v>
-      </c>
-      <c r="C12">
-        <v>96</v>
+        <v>1</v>
+      </c>
+      <c r="C12" s="6">
+        <v>30</v>
       </c>
       <c r="D12">
-        <v>24</v>
-      </c>
-      <c r="E12" t="s">
-        <v>51</v>
+        <v>15</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>59</v>
+        <v>59</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B13">
-        <v>15</v>
-      </c>
-      <c r="C13">
-        <v>81</v>
-      </c>
-      <c r="D13">
-        <v>36</v>
-      </c>
-      <c r="E13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="B13" s="4">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4">
+        <v>45</v>
+      </c>
+      <c r="D13" s="4">
+        <v>28</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>58</v>
       </c>
       <c r="H13" s="4" t="s">
@@ -1031,7 +1038,7 @@
         <v>27</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F18" s="4">
         <f t="shared" si="0"/>
@@ -1112,7 +1119,7 @@
         <v>66</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F21" s="4">
         <f t="shared" si="0"/>
@@ -1126,26 +1133,26 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22">
-        <v>79</v>
-      </c>
-      <c r="D22">
-        <v>11</v>
-      </c>
-      <c r="E22" t="s">
-        <v>51</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="B22" s="4">
+        <v>6</v>
+      </c>
+      <c r="C22" s="4">
+        <v>30</v>
+      </c>
+      <c r="D22" s="4">
+        <v>10</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>58</v>
       </c>
       <c r="H22" s="4" t="s">
@@ -1193,7 +1200,7 @@
         <v>47</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F24" s="4">
         <f t="shared" si="0"/>
@@ -1423,30 +1430,30 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="4">
         <v>7</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="4">
         <v>14</v>
       </c>
-      <c r="D33">
-        <v>40</v>
-      </c>
-      <c r="E33" t="s">
-        <v>51</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G33" t="s">
+      <c r="D33" s="4">
+        <v>33</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F33" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G33" s="4" t="s">
         <v>58</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1463,7 +1470,7 @@
         <v>60</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F34" s="4">
         <f t="shared" si="0"/>
@@ -1760,7 +1767,7 @@
         <v>115</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F45" s="4">
         <f t="shared" si="0"/>
@@ -1936,26 +1943,26 @@
       </c>
     </row>
     <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B52">
-        <v>7</v>
-      </c>
-      <c r="C52">
-        <v>71</v>
-      </c>
-      <c r="D52">
-        <v>32</v>
-      </c>
-      <c r="E52" t="s">
-        <v>51</v>
-      </c>
-      <c r="F52">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G52" t="s">
+      <c r="B52" s="4">
+        <v>9</v>
+      </c>
+      <c r="C52" s="4">
+        <v>20</v>
+      </c>
+      <c r="D52" s="4">
+        <v>23</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F52" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G52" s="4" t="s">
         <v>58</v>
       </c>
       <c r="H52" s="4" t="s">

--- a/Data/admin_data.xlsx
+++ b/Data/admin_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alia/Documents/Github/LIHEAPadminapp/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA3D942-F2FF-6F40-8A45-2C72EBA7C4B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9FAA762-0FA6-F344-9C32-87BBBAE60E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -553,7 +553,7 @@
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:H33"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Data/admin_data.xlsx
+++ b/Data/admin_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alia/Documents/Github/LIHEAPadminapp/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9FAA762-0FA6-F344-9C32-87BBBAE60E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A195E25-149A-3541-A362-18C5E9A86F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="81">
   <si>
     <t>Maine</t>
   </si>
@@ -267,6 +267,15 @@
   </si>
   <si>
     <t>SSN, proof of income, utility bill, proof of citizenship</t>
+  </si>
+  <si>
+    <t>SSN, Proof of citizenship, proof of income, utility bill, proof of disability</t>
+  </si>
+  <si>
+    <t>SSN, proof of immigration status, proof of income, utility bill</t>
+  </si>
+  <si>
+    <t>SSN, proof of income, utility bill</t>
   </si>
 </sst>
 </file>
@@ -316,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -331,7 +340,6 @@
     <xf numFmtId="5" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -553,7 +561,7 @@
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -869,13 +877,13 @@
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12">
         <v>30</v>
       </c>
       <c r="D12">
         <v>15</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" t="s">
         <v>76</v>
       </c>
       <c r="F12">
@@ -885,7 +893,7 @@
       <c r="G12" t="s">
         <v>59</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1619,26 +1627,26 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B40">
-        <v>15</v>
-      </c>
-      <c r="C40">
+      <c r="B40" s="4">
+        <v>8</v>
+      </c>
+      <c r="C40" s="4">
         <v>39</v>
       </c>
-      <c r="D40">
-        <v>19</v>
-      </c>
-      <c r="E40" t="s">
-        <v>51</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G40" t="s">
+      <c r="D40" s="4">
+        <v>13</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F40" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G40" s="4" t="s">
         <v>58</v>
       </c>
       <c r="H40" s="4" t="s">
@@ -1761,7 +1769,7 @@
         <v>7</v>
       </c>
       <c r="C45" s="4">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="D45" s="4">
         <v>115</v>
@@ -1777,34 +1785,34 @@
         <v>59</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B46">
-        <v>2</v>
-      </c>
-      <c r="C46">
-        <v>26</v>
-      </c>
-      <c r="D46">
-        <v>38</v>
-      </c>
-      <c r="E46" t="s">
-        <v>51</v>
-      </c>
-      <c r="F46">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G46" t="s">
+      <c r="B46" s="4">
+        <v>7</v>
+      </c>
+      <c r="C46" s="4">
+        <v>40</v>
+      </c>
+      <c r="D46" s="4">
+        <v>18</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F46" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G46" s="4" t="s">
         <v>58</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1835,26 +1843,26 @@
       </c>
     </row>
     <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B48">
-        <v>10</v>
-      </c>
-      <c r="C48">
-        <v>50</v>
-      </c>
-      <c r="D48">
-        <v>27</v>
-      </c>
-      <c r="E48" t="s">
-        <v>51</v>
-      </c>
-      <c r="F48">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G48" t="s">
+      <c r="B48" s="4">
+        <v>3</v>
+      </c>
+      <c r="C48" s="4">
+        <v>20</v>
+      </c>
+      <c r="D48" s="4">
+        <v>15</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F48" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G48" s="4" t="s">
         <v>58</v>
       </c>
       <c r="H48" s="4" t="s">

--- a/Data/admin_data.xlsx
+++ b/Data/admin_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alia/Documents/Github/LIHEAPadminapp/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A195E25-149A-3541-A362-18C5E9A86F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2813FB3C-BF4B-F94D-B6BF-792C313DB768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/Data/admin_data.xlsx
+++ b/Data/admin_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alia/Documents/Github/LIHEAPadminapp/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2813FB3C-BF4B-F94D-B6BF-792C313DB768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9C6682-1779-8A4B-8324-6F7B4F7F5D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12600" yWindow="760" windowWidth="14480" windowHeight="17300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="82">
   <si>
     <t>Maine</t>
   </si>
@@ -276,6 +276,9 @@
   </si>
   <si>
     <t>SSN, proof of income, utility bill</t>
+  </si>
+  <si>
+    <t>Data_share</t>
   </si>
 </sst>
 </file>
@@ -285,7 +288,7 @@
   <numFmts count="1">
     <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -298,19 +301,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -325,21 +329,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="5" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="5" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -558,10 +557,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -574,1407 +574,1563 @@
     <col min="6" max="6" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="I1" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="2">
         <v>15</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="2">
         <v>29</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="2">
         <f>LEN(E2)-LEN(SUBSTITUTE(E2,",",""))+1</f>
         <v>2</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
+      <c r="G2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="2">
         <v>16</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>40</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="2">
         <v>30</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="2">
         <f t="shared" ref="F3:F52" si="0">LEN(E3)-LEN(SUBSTITUTE(E3,",",""))+1</f>
         <v>4</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
+      <c r="G3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="2">
         <v>5</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>30</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="2">
         <v>53</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
+      <c r="G4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="2">
         <v>4</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>30</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="2">
         <v>8</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
+      <c r="G5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="2">
         <v>12</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>60</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="2">
         <v>76</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
+      <c r="G6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="2">
         <v>4</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <v>20</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="2">
         <v>11</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
+      <c r="G7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="2">
         <v>6</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="2">
         <v>40</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="2">
         <v>71</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F8" s="4">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
+      <c r="F8" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="2">
         <v>4</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="2">
         <v>20</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="2">
         <v>16</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
+      <c r="G9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="4">
-        <v>3</v>
-      </c>
-      <c r="C10" s="4">
+      <c r="B10" s="2">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2">
         <v>15</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="2">
         <v>50</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="4">
-        <v>3</v>
-      </c>
-      <c r="C11" s="4">
+      <c r="G10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="2">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2">
         <v>30</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="2">
         <v>15</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>1</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>30</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>15</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G12" t="s">
-        <v>59</v>
-      </c>
-      <c r="H12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="3" t="s">
+      <c r="G12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="2">
         <v>11</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="2">
         <v>45</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="2">
         <v>28</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
+      <c r="G13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14">
+      <c r="B14" s="2">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2">
         <v>36</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>24</v>
       </c>
-      <c r="E14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G14" t="s">
-        <v>58</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>12</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>18</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>30</v>
       </c>
-      <c r="E15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G15" t="s">
-        <v>58</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>5</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>45</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>20</v>
       </c>
-      <c r="E16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G16" t="s">
-        <v>58</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>12</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>28</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>19</v>
       </c>
-      <c r="E17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G17" t="s">
-        <v>58</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="3" t="s">
+      <c r="E17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="2">
         <v>5</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="2">
         <v>15</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="2">
         <v>27</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>9</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>62</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>13</v>
       </c>
-      <c r="E19" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G19" t="s">
-        <v>58</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>2</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <v>79</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>23</v>
       </c>
-      <c r="E20" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G20" t="s">
-        <v>58</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="3" t="s">
+      <c r="E20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="2">
         <v>4</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="2">
         <v>30</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="2">
         <v>66</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="3" t="s">
+      <c r="G21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="2">
         <v>6</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="2">
         <v>30</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="2">
         <v>10</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="2">
         <v>6</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="2">
         <v>99</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="2">
         <v>27</v>
       </c>
-      <c r="E23" t="s">
-        <v>51</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G23" t="s">
-        <v>58</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="3" t="s">
+      <c r="E23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="2">
         <v>4</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="2">
         <v>30</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="2">
         <v>47</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="2">
         <v>1</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="2">
         <v>13</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="2">
         <v>19</v>
       </c>
-      <c r="E25" t="s">
-        <v>51</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G25" t="s">
-        <v>58</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="2">
         <v>9</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="2">
         <v>56</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="2">
         <v>36</v>
       </c>
-      <c r="E26" t="s">
-        <v>51</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G26" t="s">
-        <v>58</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="2">
         <v>9</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="2">
         <v>65</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="2">
         <v>13</v>
       </c>
-      <c r="E27" t="s">
-        <v>51</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G27" t="s">
-        <v>58</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="2" t="s">
+      <c r="E27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="2">
         <v>6</v>
       </c>
-      <c r="C28">
-        <v>58</v>
-      </c>
-      <c r="D28">
+      <c r="C28" s="2">
+        <v>58</v>
+      </c>
+      <c r="D28" s="2">
         <v>26</v>
       </c>
-      <c r="E28" t="s">
-        <v>51</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G28" t="s">
-        <v>58</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E28" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="2">
         <v>11</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="2">
         <v>24</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="2">
         <v>18</v>
       </c>
-      <c r="E29" t="s">
-        <v>51</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G29" t="s">
-        <v>58</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="2" t="s">
+      <c r="E29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="2">
         <v>10</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="2">
         <v>41</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="2">
         <v>36</v>
       </c>
-      <c r="E30" t="s">
-        <v>51</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G30" t="s">
-        <v>58</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E30" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="2">
         <v>12</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="2">
         <v>12</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="2">
         <v>37</v>
       </c>
-      <c r="E31" t="s">
-        <v>51</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G31" t="s">
-        <v>58</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E31" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="2">
         <v>6</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="2">
         <v>38</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="2">
         <v>35</v>
       </c>
-      <c r="E32" t="s">
-        <v>51</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G32" t="s">
-        <v>58</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="5" t="s">
+      <c r="E32" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="2">
         <v>7</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="2">
         <v>14</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="2">
         <v>33</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G33" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="3" t="s">
+      <c r="G33" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="2">
         <v>18</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="2">
         <v>50</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="2">
         <v>60</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G34" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G34" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="2">
         <v>13</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="2">
         <v>93</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="2">
         <v>24</v>
       </c>
-      <c r="E35" t="s">
-        <v>51</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G35" t="s">
-        <v>58</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E35" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F35" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="2">
         <v>4</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="2">
         <v>78</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="2">
         <v>17</v>
       </c>
-      <c r="E36" t="s">
-        <v>51</v>
-      </c>
-      <c r="F36">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G36" t="s">
-        <v>58</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E36" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F36" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="2">
         <v>5</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="2">
         <v>91</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="2">
         <v>38</v>
       </c>
-      <c r="E37" t="s">
-        <v>51</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G37" t="s">
-        <v>58</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E37" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F37" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="2">
         <v>15</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="2">
         <v>78</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="2">
         <v>40</v>
       </c>
-      <c r="E38" t="s">
-        <v>51</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G38" t="s">
-        <v>58</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="2" t="s">
+      <c r="E38" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F38" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B39">
-        <v>3</v>
-      </c>
-      <c r="C39">
+      <c r="B39" s="2">
+        <v>3</v>
+      </c>
+      <c r="C39" s="2">
         <v>37</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="2">
         <v>20</v>
       </c>
-      <c r="E39" t="s">
-        <v>51</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G39" t="s">
-        <v>58</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="3" t="s">
+      <c r="E39" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F39" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="2">
         <v>8</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="2">
         <v>39</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="2">
         <v>13</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G40" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G40" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="2">
         <v>12</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="2">
         <v>55</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="2">
         <v>21</v>
       </c>
-      <c r="E41" t="s">
-        <v>51</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G41" t="s">
-        <v>58</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E41" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F41" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="2">
         <v>9</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="2">
         <v>54</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="2">
         <v>18</v>
       </c>
-      <c r="E42" t="s">
-        <v>51</v>
-      </c>
-      <c r="F42">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G42" t="s">
-        <v>58</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E42" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F42" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="2">
         <v>14</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="2">
         <v>18</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="2">
         <v>37</v>
       </c>
-      <c r="E43" t="s">
-        <v>51</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G43" t="s">
-        <v>58</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E43" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F43" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="2">
         <v>13</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="2">
         <v>29</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="2">
         <v>38</v>
       </c>
-      <c r="E44" t="s">
-        <v>51</v>
-      </c>
-      <c r="F44">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G44" t="s">
-        <v>58</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="3" t="s">
+      <c r="E44" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F44" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="2">
         <v>7</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="2">
         <v>60</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="2">
         <v>115</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E45" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G45" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="5" t="s">
+      <c r="G45" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" s="2">
         <v>7</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="2">
         <v>40</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="2">
         <v>18</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="E46" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F46" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G46" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G46" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="2">
         <v>9</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="2">
         <v>68</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="2">
         <v>26</v>
       </c>
-      <c r="E47" t="s">
-        <v>51</v>
-      </c>
-      <c r="F47">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G47" t="s">
-        <v>58</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="3" t="s">
+      <c r="E47" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F47" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B48" s="4">
-        <v>3</v>
-      </c>
-      <c r="C48" s="4">
+      <c r="B48" s="2">
+        <v>3</v>
+      </c>
+      <c r="C48" s="2">
         <v>20</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="2">
         <v>15</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E48" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F48" s="4">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="2" t="s">
+      <c r="F48" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="2">
         <v>5</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="2">
         <v>48</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="2">
         <v>33</v>
       </c>
-      <c r="E49" t="s">
-        <v>51</v>
-      </c>
-      <c r="F49">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G49" t="s">
-        <v>58</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E49" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F49" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="2">
         <v>4</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="2">
         <v>25</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="2">
         <v>20</v>
       </c>
-      <c r="E50" t="s">
-        <v>51</v>
-      </c>
-      <c r="F50">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G50" t="s">
-        <v>58</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E50" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F50" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="2">
         <v>4</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="2">
         <v>10</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="2">
         <v>15</v>
       </c>
-      <c r="E51" t="s">
-        <v>51</v>
-      </c>
-      <c r="F51">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G51" t="s">
-        <v>58</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="5" t="s">
+      <c r="E51" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F51" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52" s="2">
         <v>9</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52" s="2">
         <v>20</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52" s="2">
         <v>23</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="E52" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F52" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G52" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>59</v>
+      <c r="G52" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
